--- a/甘肃_city.xlsx
+++ b/甘肃_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,20 +384,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>conadd</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hejian</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>susNum</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cureNum</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>deathNum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>mapName</t>
         </is>
@@ -413,23 +423,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>36</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>22</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>29</v>
+      </c>
+      <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>兰州市</t>
         </is>
@@ -445,23 +459,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>平凉市</t>
         </is>
@@ -477,23 +495,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>8</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>甘南藏族自治州</t>
         </is>
@@ -505,29 +527,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>白银</t>
+          <t>定西</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>白银市</t>
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>定西市</t>
         </is>
       </c>
     </row>
@@ -537,29 +563,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>天水</t>
+          <t>白银</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>天水市</t>
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>白银市</t>
         </is>
       </c>
     </row>
@@ -569,29 +599,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>定西</t>
+          <t>庆阳</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>定西市</t>
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>庆阳市</t>
         </is>
       </c>
     </row>
@@ -601,29 +635,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>庆阳</t>
+          <t>天水</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>庆阳市</t>
+        <v>12</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>12</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>天水市</t>
         </is>
       </c>
     </row>
@@ -642,18 +680,22 @@
       <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>陇南市</t>
         </is>
@@ -674,18 +716,22 @@
       <c r="D10" t="n">
         <v>3</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>临夏回族自治州</t>
         </is>
@@ -706,18 +752,22 @@
       <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>张掖市</t>
         </is>
@@ -738,18 +788,22 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>金昌市</t>
         </is>

--- a/甘肃_city.xlsx
+++ b/甘肃_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,6 +412,11 @@
           <t>mapName</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>citycode</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -419,17 +424,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>平凉</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -438,14 +445,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>兰州市</t>
+          <t>平凉市</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CN62080000000000</t>
         </is>
       </c>
     </row>
@@ -455,17 +467,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>平凉</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
@@ -474,14 +488,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>平凉市</t>
+          <t>兰州市</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>CN62010000000000</t>
         </is>
       </c>
     </row>
@@ -491,17 +510,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>甘南州</t>
+          <t>定西</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
@@ -510,14 +531,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>甘南藏族自治州</t>
+          <t>定西市</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CN62110000000000</t>
         </is>
       </c>
     </row>
@@ -527,17 +553,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>定西</t>
+          <t>庆阳</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
@@ -546,14 +574,19 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>定西市</t>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CN62100000000000</t>
         </is>
       </c>
     </row>
@@ -563,17 +596,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>白银</t>
+          <t>天水</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
@@ -582,14 +617,19 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>白银市</t>
+          <t>天水市</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CN62050000000000</t>
         </is>
       </c>
     </row>
@@ -599,17 +639,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>庆阳</t>
+          <t>甘南州</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
@@ -618,14 +660,19 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>甘南藏族自治州</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>CN62300000000000</t>
         </is>
       </c>
     </row>
@@ -635,17 +682,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>天水</t>
+          <t>白银</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
@@ -654,14 +703,19 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>天水市</t>
+          <t>白银市</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>CN62040000000000</t>
         </is>
       </c>
     </row>
@@ -680,8 +734,10 @@
       <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
@@ -698,6 +754,11 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>陇南市</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>CN62120000000000</t>
         </is>
       </c>
     </row>
@@ -716,8 +777,10 @@
       <c r="D10" t="n">
         <v>3</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
@@ -734,6 +797,11 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>临夏回族自治州</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>CN62290000000000</t>
         </is>
       </c>
     </row>
@@ -752,8 +820,10 @@
       <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
@@ -770,6 +840,11 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>张掖市</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>CN62070000000000</t>
         </is>
       </c>
     </row>
@@ -788,8 +863,10 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
@@ -806,6 +883,11 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>金昌市</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>CN62030000000000</t>
         </is>
       </c>
     </row>

--- a/甘肃_city.xlsx
+++ b/甘肃_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,32 +389,47 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>conadd_str</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>hejian</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>susNum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cureNum</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>deathNum</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>mapName</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>citycode</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>econNum</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>jwsr</t>
         </is>
       </c>
     </row>
@@ -424,42 +439,45 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>平凉</t>
+          <t>境外输入人员</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>平凉市</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>CN62080000000000</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -471,7 +489,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>36</v>
@@ -481,28 +499,39 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>32</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>兰州市</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>CN62010000000000</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -510,42 +539,53 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>定西</t>
+          <t>天水</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>定西市</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>CN62110000000000</t>
-        </is>
-      </c>
+          <t>天水市</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CN62050000000000</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,42 +593,53 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>庆阳</t>
+          <t>定西</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>庆阳市</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>CN62100000000000</t>
-        </is>
-      </c>
+          <t>定西市</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CN62110000000000</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,42 +647,53 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>天水</t>
+          <t>平凉</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>12</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>天水市</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>CN62050000000000</t>
-        </is>
-      </c>
+          <t>平凉市</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CN62080000000000</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -653,28 +715,39 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>8</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>甘南藏族自治州</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>CN62300000000000</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -696,28 +769,39 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>4</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>白银市</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>CN62040000000000</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -739,28 +823,39 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>4</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>陇南市</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>CN62120000000000</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -768,7 +863,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>临夏州</t>
+          <t>庆阳</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -782,28 +877,39 @@
           <t>0</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>临夏回族自治州</t>
-        </is>
+      <c r="J10" t="n">
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>CN62290000000000</t>
-        </is>
-      </c>
+          <t>庆阳市</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CN62100000000000</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -811,42 +917,53 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>张掖</t>
+          <t>临夏州</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>张掖市</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CN62070000000000</t>
-        </is>
-      </c>
+          <t>临夏回族自治州</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CN62290000000000</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -854,42 +971,107 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>张掖</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>张掖市</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CN62070000000000</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>金昌</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>+0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>金昌市</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>CN62030000000000</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
